--- a/controllers/13-7-2022.xlsx
+++ b/controllers/13-7-2022.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -445,7 +445,7 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>62ce656015ce0ad62f5385f0</v>
+        <v>62ce8f3617add8421de90b68</v>
       </c>
       <c r="B2" t="str">
         <v>Kamsir</v>
@@ -460,33 +460,74 @@
         <v>Gordon Rallat</v>
       </c>
       <c r="F2" t="str">
-        <v>closing</v>
+        <v>rapoo</v>
       </c>
       <c r="G2" t="str">
-        <v>tiktok</v>
+        <v>salesintech</v>
       </c>
       <c r="H2" t="str">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="I2" t="str">
-        <v>07/11/2022</v>
+        <v>19/07/2022</v>
       </c>
       <c r="J2" t="str">
-        <v>whatsapp</v>
+        <v>wordpress</v>
       </c>
       <c r="K2" t="str">
-        <v>cost</v>
+        <v>delivery</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2" t="str">
         <v/>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>62ce8f5017add8421de90b71</v>
+      </c>
+      <c r="B3" t="str">
+        <v>Hamdani</v>
+      </c>
+      <c r="C3" t="str">
+        <v>hamdani@mail.com</v>
+      </c>
+      <c r="D3" t="str">
+        <v>08123</v>
+      </c>
+      <c r="E3" t="str">
+        <v>Haleyora Power</v>
+      </c>
+      <c r="F3" t="str">
+        <v>refollow up</v>
+      </c>
+      <c r="G3" t="str">
+        <v>tiktok</v>
+      </c>
+      <c r="H3" t="str">
+        <v>13</v>
+      </c>
+      <c r="I3" t="str">
+        <v>15/07/2022</v>
+      </c>
+      <c r="J3" t="str">
+        <v>wordpress</v>
+      </c>
+      <c r="K3" t="str">
+        <v>delivery</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3" t="str">
+        <v>07/06/2022</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:M2"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:M3"/>
   </ignoredErrors>
 </worksheet>
 </file>